--- a/clabs/Monte/Monte-karlo.xlsx
+++ b/clabs/Monte/Monte-karlo.xlsx
@@ -19,7 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -136,124 +143,112 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$49</c:f>
+              <c:f>Sheet1!$B$14:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.1389999999999998</c:v>
+                  <c:v>3.1415999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3.1415999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1415999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1410999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1415000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1410999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1419000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3.1417999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>3.1417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1410999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1415000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1410999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1415999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3.1421999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.141</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1412</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.141</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1425999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1421000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1410999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.141</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>3.1419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.1425000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1414</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1410999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.1415000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3.1410999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1413000000000002</c:v>
+                  <c:v>3.1414</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.1419000000000001</c:v>
+                  <c:v>3.1415999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1417999999999999</c:v>
+                  <c:v>3.1415999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.1417999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.1410999999999998</c:v>
+                  <c:v>3.1415999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.1415000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>3.1414</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1412</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1414</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3.1410999999999998</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.1413000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
+                  <c:v>3.1414</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.1421999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.1419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1410999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.1414</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3.1415999999999999</c:v>
@@ -262,45 +257,9 @@
                   <c:v>3.1415999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1417999999999999</c:v>
+                  <c:v>3.1415999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.1415000000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.1414</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.1412</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.1419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.1414</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.1410999999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.1414</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.1415999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
                   <c:v>3.1419000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -309,7 +268,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3414-40C7-AA5E-38EB7C52166C}"/>
+              <c16:uniqueId val="{00000000-B109-4AD7-8923-41D21F445CE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -321,18 +280,74 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087519135"/>
-        <c:axId val="2087529535"/>
+        <c:axId val="419324640"/>
+        <c:axId val="419327264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087519135"/>
+        <c:axId val="419324640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -369,7 +384,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087529535"/>
+        <c:crossAx val="419327264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -377,7 +392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2087529535"/>
+        <c:axId val="419327264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,6 +412,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -428,7 +500,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2087519135"/>
+        <c:crossAx val="419324640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -518,7 +590,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -626,6 +698,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -636,6 +713,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -667,6 +749,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1024,20 +1109,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1318,256 +1403,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>3.1389999999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>3.1417999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>3.1421999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>3.141</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>3.1412</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>3.141</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3.1425999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>3.1421000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>3.1410999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>3.141</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>3.1419999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>3.1425000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>3.1414</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>3.1410999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>3.1415000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>3.1410999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>3.1413000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>3.1419000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>3.1417999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>3.1417999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>3.1410999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>3.1415000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>3.1410999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>3.1413000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>3.1421999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>3.1419999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>3.1410999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>3.1414</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>3.1417999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>3.1415000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>3.1414</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>3.1412</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>3.1419999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>3.1414</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>3.1410999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>3.1414</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>3.1415999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>3.1419000000000001</v>
       </c>
     </row>
